--- a/프로그램 따로_정리/자바/클래스와 인스턴스/클래스와 인스턴스.xlsx
+++ b/프로그램 따로_정리/자바/클래스와 인스턴스/클래스와 인스턴스.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\프로그램 따로_정리\자바\클래스와 인스턴스\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Documents\GitHub\study-feel\프로그램 따로_정리\자바\클래스와 인스턴스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9830C967-276F-4FDF-8CE5-8BE202267DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221C40E5-6697-47D8-AA3F-CEE685A85286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="3135" windowWidth="15600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1520,7 +1520,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1585,11 +1585,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1610,6 +1619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1665,6 +1675,50 @@
         <a:xfrm>
           <a:off x="0" y="8915400"/>
           <a:ext cx="8466667" cy="8476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>546191</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>69258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B881D27A-046F-4EA9-B6FC-AEAB01D1C9FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17321894"/>
+          <a:ext cx="5213441" cy="1062578"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1939,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2275,6 +2329,22 @@
         <v>52</v>
       </c>
     </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
